--- a/blast_unassigned_names_RepresentationInData.xlsx
+++ b/blast_unassigned_names_RepresentationInData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="13120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="blast_unassigned_names_Represen" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="151">
   <si>
     <t>gi|82562294|gb|DQ269080.1|</t>
   </si>
@@ -34,15 +34,6 @@
   </si>
   <si>
     <t>Bacteria; __Proteobacteria; __Alphaproteobacteria</t>
-  </si>
-  <si>
-    <t>gi|1134590550|gb|KY492734.1|</t>
-  </si>
-  <si>
-    <t>Aquamicrobium aestuarii strain S265 16S ribosomal RNA gene, partial sequence</t>
-  </si>
-  <si>
-    <t>Pseudaminobacter sp. G210</t>
   </si>
   <si>
     <t>gi|939592771|gb|KR845694.1|</t>
@@ -75,12 +66,6 @@
     <t>Uncultured bacterium clone 2493 16S ribosomal RNA gene, partial sequence</t>
   </si>
   <si>
-    <t>gi|1132317770|gb|KX936739.1|</t>
-  </si>
-  <si>
-    <t>Uncultured marine bacterium clone H3S3Ac69D 16S ribosomal RNA gene, partial sequence</t>
-  </si>
-  <si>
     <t>uncultured marine bacterium</t>
   </si>
   <si>
@@ -105,12 +90,6 @@
     <t>Bathycoccus prasinos</t>
   </si>
   <si>
-    <t>gi|299481446|gb|HM023049.1|</t>
-  </si>
-  <si>
-    <t>Uncultured bacterium clone PrSur1 16S ribosomal RNA gene, partial sequence</t>
-  </si>
-  <si>
     <t>gi|364594403|gb|JN442399.1|</t>
   </si>
   <si>
@@ -129,12 +108,6 @@
     <t>Uncultured bacterium clone js8922 16S ribosomal RNA gene, partial sequence</t>
   </si>
   <si>
-    <t>gi|1109174088|gb|KY256579.1|</t>
-  </si>
-  <si>
-    <t>Uncultured bacterium clone js6077 16S ribosomal RNA gene, partial sequence</t>
-  </si>
-  <si>
     <t>gi|295147354|gb|GQ274302.1|</t>
   </si>
   <si>
@@ -151,12 +124,6 @@
   </si>
   <si>
     <t>Uncultured bacterium clone 510359_1 16S ribosomal RNA gene, partial sequence</t>
-  </si>
-  <si>
-    <t>gi|1190332232|emb|LT800441.1|</t>
-  </si>
-  <si>
-    <t>Uncultured bacterium partial 16S rRNA gene, clone BC_BT1B_G4</t>
   </si>
   <si>
     <t>gi|926809083|gb|KP404740.1|</t>
@@ -184,12 +151,6 @@
   </si>
   <si>
     <t>Uncultured bacterium clone N501B_352 16S ribosomal RNA gene, partial sequence</t>
-  </si>
-  <si>
-    <t>gi|168997163|gb|EU290302.1|</t>
-  </si>
-  <si>
-    <t>Uncultured bacterium clone tet2ect1B3 16S ribosomal RNA gene, partial sequence</t>
   </si>
   <si>
     <t>gi|1207850144|gb|KY987592.1|</t>
@@ -237,25 +198,10 @@
     <t>Melosira nummuloides</t>
   </si>
   <si>
-    <t>gi|768321759|gb|KJ961704.1|</t>
-  </si>
-  <si>
-    <t>Melosira sp. 52 18S ribosomal RNA gene, partial sequence</t>
-  </si>
-  <si>
-    <t>Melosira sp. 52</t>
-  </si>
-  <si>
     <t>gi|943822546|gb|KT915117.1|</t>
   </si>
   <si>
     <t>Uncultured bacterium clone 17397 16S ribosomal RNA gene, partial sequence</t>
-  </si>
-  <si>
-    <t>gi|675299730|gb|GU984132.1|</t>
-  </si>
-  <si>
-    <t>Uncultured bacterium clone 527_B11_2 16S ribosomal RNA gene, partial sequence</t>
   </si>
   <si>
     <t>gi|300680459|gb|HM437501.1|</t>
@@ -264,37 +210,13 @@
     <t>Uncultured marine bacterium clone B-Alg36 16S ribosomal RNA gene, partial sequence</t>
   </si>
   <si>
-    <t>gi|335392220|gb|JF949284.1|</t>
-  </si>
-  <si>
-    <t>Uncultured gamma proteobacterium clone Pa31c06 16S ribosomal RNA gene, partial sequence</t>
-  </si>
-  <si>
-    <t>uncultured gamma proteobacterium</t>
-  </si>
-  <si>
-    <t>Bacteria; __Proteobacteria; __Gammaproteobacteria</t>
-  </si>
-  <si>
     <t>gi|1140393721|gb|KU675296.1|</t>
   </si>
   <si>
     <t>Uncultured bacterium clone SEAS_399 16S ribosomal RNA gene, partial sequence</t>
   </si>
   <si>
-    <t>gi|1215160076|dbj|LC297743.1|</t>
-  </si>
-  <si>
-    <t>Uncultured prokaryote gene for urease, partial sequence, 16S_OTU:10560</t>
-  </si>
-  <si>
     <t>uncultured prokaryote</t>
-  </si>
-  <si>
-    <t>gi|1137139597|gb|KY516957.1|</t>
-  </si>
-  <si>
-    <t>Uncultured bacterium clone ELA_111314_OTU_1412 16S ribosomal RNA gene, partial sequence</t>
   </si>
   <si>
     <t>gi|338796786|emb|FR874823.1|</t>
@@ -318,12 +240,6 @@
     <t>Uncultured marine bacterium clone SiDJun08M7 16S ribosomal RNA gene, partial sequence</t>
   </si>
   <si>
-    <t>gi|227462026|gb|FJ930687.1|</t>
-  </si>
-  <si>
-    <t>Uncultured bacterium clone W2-D07 16S small subunit ribosomal RNA gene, partial sequence</t>
-  </si>
-  <si>
     <t>gi|1062339686|gb|KX525587.1|</t>
   </si>
   <si>
@@ -334,15 +250,6 @@
   </si>
   <si>
     <t>Eukaryote</t>
-  </si>
-  <si>
-    <t>gi|612407988|gb|KJ398161.1|</t>
-  </si>
-  <si>
-    <t>Riquetophycus sp. HSY-2014a mitochondrion, partial genome</t>
-  </si>
-  <si>
-    <t>Riquetophycus sp. HSY-2014a</t>
   </si>
   <si>
     <t>gi|460501942|gb|JX521501.1|</t>
@@ -378,22 +285,10 @@
     <t>Uncultured bacterium clone Alt_19 16S ribosomal RNA gene, partial sequence</t>
   </si>
   <si>
-    <t>gi|1137143470|gb|KY520830.1|</t>
-  </si>
-  <si>
-    <t>Uncultured bacterium clone ELA_111314_OTU_5772 16S ribosomal RNA gene, partial sequence</t>
-  </si>
-  <si>
     <t>gi|190662987|gb|EU741311.1|</t>
   </si>
   <si>
     <t>Uncultured bacterium clone ES4-12 16S ribosomal RNA gene, partial sequence</t>
-  </si>
-  <si>
-    <t>gi|184188679|gb|EU640157.1|</t>
-  </si>
-  <si>
-    <t>Uncultured bacterium clone LW1m-3-11 16S ribosomal RNA gene, partial sequence</t>
   </si>
   <si>
     <t>gi|1268087870|gb|MF992127.1|</t>
@@ -414,22 +309,10 @@
     <t>Cephaloidophora cf. communis</t>
   </si>
   <si>
-    <t>gi|373862448|gb|HQ867378.1|</t>
-  </si>
-  <si>
-    <t>Uncultured eukaryote clone SHAC682 18S ribosomal RNA gene, partial sequence</t>
-  </si>
-  <si>
     <t>gi|133778615|dbj|AB275067.1|</t>
   </si>
   <si>
     <t>Uncultured eukaryote gene for SSU rRNA, partial sequence, clone: DSGM-67</t>
-  </si>
-  <si>
-    <t>gi|389618951|gb|JQ004804.1|</t>
-  </si>
-  <si>
-    <t>Uncultured eukaryote clone OTU A small subunit ribosomal RNA gene, partial sequence</t>
   </si>
   <si>
     <t>gi|1052478446|gb|KX706671.1|</t>
@@ -438,22 +321,10 @@
     <t>Uncultured bacterium clone 4362 16S ribosomal RNA gene, partial sequence</t>
   </si>
   <si>
-    <t>gi|570553519|gb|KF799088.1|</t>
-  </si>
-  <si>
-    <t>Uncultured bacterium clone Woods-Hole_a5529 16S ribosomal RNA gene, partial sequence</t>
-  </si>
-  <si>
     <t>gi|307697429|gb|GU070688.1|</t>
   </si>
   <si>
     <t>Uncultured bacterium clone GB4 16S ribosomal RNA gene, partial sequence</t>
-  </si>
-  <si>
-    <t>gi|1140394996|gb|KU676571.1|</t>
-  </si>
-  <si>
-    <t>Uncultured bacterium clone SEAS_2144 16S ribosomal RNA gene, partial sequence</t>
   </si>
   <si>
     <t>gi|874544815|gb|KP918750.1|</t>
@@ -477,25 +348,10 @@
     <t>uncultured stramenopile</t>
   </si>
   <si>
-    <t>gi|1145587825|gb|KX431476.1|</t>
-  </si>
-  <si>
-    <t>Chrysolepidomonas sp. strain IOW112 18S ribosomal RNA gene, partial sequence</t>
-  </si>
-  <si>
-    <t>Chrysolepidomonas sp.</t>
-  </si>
-  <si>
     <t>gi|291196722|emb|FN663004.1|</t>
   </si>
   <si>
     <t>Uncultured bacterium partial 16S rRNA gene, clone C3182</t>
-  </si>
-  <si>
-    <t>gi|291196727|emb|FN663009.1|</t>
-  </si>
-  <si>
-    <t>Uncultured bacterium partial 16S rRNA gene, clone C3188</t>
   </si>
   <si>
     <t>gi|1043667331|gb|KX564362.1|</t>
@@ -508,12 +364,6 @@
   </si>
   <si>
     <t>Uncultured prokaryote clone New.CleanUp.ReferenceOTU367126 16S ribosomal RNA gene, partial sequence</t>
-  </si>
-  <si>
-    <t>gi|1190749786|gb|MF081301.1|</t>
-  </si>
-  <si>
-    <t>Uncultured bacterium clone 1922 16S ribosomal RNA gene, partial sequence</t>
   </si>
   <si>
     <t>gi|364589247|gb|JN437243.1|</t>
@@ -538,12 +388,6 @@
   </si>
   <si>
     <t>Caecitellus parvulus</t>
-  </si>
-  <si>
-    <t>gi|616935572|gb|KF130218.1|</t>
-  </si>
-  <si>
-    <t>Uncultured eukaryote clone ST6000.091 18S ribosomal RNA gene, partial sequence</t>
   </si>
   <si>
     <t>gi|385663530|gb|JQ782084.1|</t>
@@ -573,31 +417,10 @@
     <t>Ephelota gigantea</t>
   </si>
   <si>
-    <t>gi|33087332|gb|AY331805.1|</t>
-  </si>
-  <si>
-    <t>Ephelota sp. OOS-2003 clone 2 small subunit ribosomal RNA gene, partial sequence</t>
-  </si>
-  <si>
-    <t>Ephelota sp. OOS-2003</t>
-  </si>
-  <si>
-    <t>gi|874549181|gb|KP923116.1|</t>
-  </si>
-  <si>
-    <t>Uncultured bacterium clone OTU158435_AL243_7249438 16S ribosomal RNA gene, partial sequence</t>
-  </si>
-  <si>
     <t>gi|1109173708|gb|KY256199.1|</t>
   </si>
   <si>
     <t>Uncultured bacterium clone js5672 16S ribosomal RNA gene, partial sequence</t>
-  </si>
-  <si>
-    <t>gi|1118723445|gb|KX973706.1|</t>
-  </si>
-  <si>
-    <t>Uncultured bacterium clone OTU_6276 16S ribosomal RNA gene, partial sequence</t>
   </si>
   <si>
     <t>gi|1197379061|gb|KX602057.1|</t>
@@ -630,35 +453,35 @@
     <t># reads in dataset</t>
   </si>
   <si>
-    <t>&lt;98% Match</t>
-  </si>
-  <si>
     <t>%Rep</t>
-  </si>
-  <si>
-    <t>&gt;98% Match, Euk</t>
-  </si>
-  <si>
-    <t>&gt;98% Match, Mito</t>
-  </si>
-  <si>
-    <t>&gt;98% Match, Bact</t>
-  </si>
-  <si>
-    <t>Total thrown out</t>
   </si>
   <si>
     <t>% of thrown out</t>
   </si>
   <si>
-    <t>% of all seq that were &lt;98% and NOT bacteria</t>
+    <t>total dataset</t>
+  </si>
+  <si>
+    <t>total unassigned</t>
+  </si>
+  <si>
+    <t>Euks/mitochondria/no match</t>
+  </si>
+  <si>
+    <t>% all seqs</t>
+  </si>
+  <si>
+    <t>less 98% Match, bact</t>
+  </si>
+  <si>
+    <t>greater 98%, bact</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -682,6 +505,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -700,17 +530,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -16057,1134 +15900,1158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q119"/>
+  <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
     <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="E1" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="I1" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="J1" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="K1" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="N1" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="O1" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="P1" t="s">
-        <v>209</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:19">
       <c r="A2">
-        <v>192</v>
+        <v>6887</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>86.4</v>
       </c>
       <c r="D2">
         <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>41875</v>
+        <v>77133</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>873</v>
+        <f>VLOOKUP(A2,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
+        <v>728</v>
       </c>
       <c r="J2">
         <f>VLOOKUP(A2,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>9.09375</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="K2">
-        <f>J2/30576</f>
-        <v>2.9741463893249607E-4</v>
+        <f t="shared" ref="K2:K33" si="0">J2/30576</f>
+        <v>2.48015873015873E-4</v>
       </c>
       <c r="M2" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="N2">
-        <f>SUM(I38:I119)/2690674</f>
-        <v>5.517650967750088E-2</v>
+        <f>SUM(I43:I76)</f>
+        <v>43614</v>
       </c>
       <c r="O2">
-        <f>N2/N7</f>
-        <v>0.64295149129303131</v>
+        <f>N2/N8</f>
+        <v>0.37557804090419805</v>
       </c>
       <c r="P2">
-        <f>SUM(I42,I44:I45,I50,I56:I58,I62,I64,I68,I80,I108,I111,I113,I116,I117,I119)/2690674</f>
-        <v>3.1999417246385106E-3</v>
-      </c>
-      <c r="Q2">
-        <f>P2/N2</f>
-        <v>5.7994638358637225E-2</v>
-      </c>
+        <f>N2/N$9</f>
+        <v>1.6209321530590477E-2</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="A3">
-        <v>747</v>
+        <v>15485</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>87.2</v>
       </c>
       <c r="D3">
         <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>100272</v>
+        <v>77133</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>2011</v>
+        <f>VLOOKUP(A3,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
+        <v>633</v>
       </c>
       <c r="J3">
         <f>VLOOKUP(A3,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>20.947916666666668</v>
+        <v>6.59375</v>
       </c>
       <c r="K3">
-        <f>J3/30576</f>
-        <v>6.8510978109192404E-4</v>
+        <f t="shared" si="0"/>
+        <v>2.1565116431187861E-4</v>
       </c>
       <c r="M3" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="N3">
-        <f>SUM(I3:I4,I8:I13,I16:I25,I27,I29:I30,I3:I37)/2690674</f>
-        <v>3.0316567521743623E-2</v>
+        <f>SUM(I8:I42)</f>
+        <v>68616</v>
       </c>
       <c r="O3">
-        <f>N3/N7</f>
-        <v>0.35326776581047775</v>
-      </c>
+        <f>N3/N8</f>
+        <v>0.59088051668460706</v>
+      </c>
+      <c r="P3">
+        <f>N3/N$9</f>
+        <v>2.5501417117049483E-2</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19">
       <c r="A4">
-        <v>232</v>
+        <v>15488</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>87.6</v>
       </c>
       <c r="D4">
         <v>250</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>35125</v>
+        <v>77133</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(A4,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>190</v>
+        <v>848</v>
       </c>
       <c r="J4">
         <f>VLOOKUP(A4,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.9791666666666667</v>
+        <v>8.8333333333333339</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K3:K66" si="0">J4/30576</f>
-        <v>6.4729417407988839E-5</v>
+        <f t="shared" si="0"/>
+        <v>2.8889761032618177E-4</v>
       </c>
       <c r="M4" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="N4">
-        <f>I2/2690674</f>
-        <v>3.2445402155742388E-4</v>
+        <f>SUM(I2:I7)</f>
+        <v>3895</v>
       </c>
       <c r="O4">
-        <f>N4/N7</f>
-        <v>3.7807428964907945E-3</v>
-      </c>
+        <f>N4/N8</f>
+        <v>3.3541442411194833E-2</v>
+      </c>
+      <c r="P4">
+        <f>N4/N$9</f>
+        <v>1.4475926849555167E-3</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19">
       <c r="A5">
-        <v>6974</v>
+        <v>10350</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>89.2</v>
       </c>
       <c r="D5">
         <v>250</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>56765</v>
+        <v>77133</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(A5,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="J5">
         <f>VLOOKUP(A5,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.03125</v>
+        <v>2.375</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>6.6432823129251707E-5</v>
-      </c>
-      <c r="M5" t="s">
-        <v>206</v>
-      </c>
-      <c r="N5">
-        <f>SUM(I5:I7,I14:I15,I26,I28,I31:I33)/2690674</f>
-        <v>1.470263584514512E-3</v>
-      </c>
+        <v>7.7675300889586607E-5</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6">
-        <v>15302</v>
+        <v>10345</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>89.6</v>
       </c>
       <c r="D6">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <v>77133</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(A6,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>431</v>
+        <v>1233</v>
       </c>
       <c r="J6">
         <f>VLOOKUP(A6,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>4.489583333333333</v>
+        <v>12.84375</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>1.4683357317285889E-4</v>
-      </c>
+        <v>4.2005985086342228E-4</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19">
       <c r="A7">
-        <v>6048</v>
+        <v>10351</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C7">
+        <v>89.641000000000005</v>
+      </c>
+      <c r="D7">
+        <v>251</v>
+      </c>
+      <c r="E7" t="s">
         <v>100</v>
       </c>
-      <c r="D7">
-        <v>246</v>
-      </c>
-      <c r="E7" t="s">
-        <v>117</v>
-      </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <v>77133</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I7">
         <f>VLOOKUP(A7,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>430</v>
+        <v>225</v>
       </c>
       <c r="J7">
         <f>VLOOKUP(A7,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>4.479166666666667</v>
+        <v>2.34375</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>1.4649289202860633E-4</v>
-      </c>
-      <c r="M7" t="s">
-        <v>207</v>
-      </c>
-      <c r="N7">
-        <f>SUM(N2,N3,N4)</f>
-        <v>8.5817531220801935E-2</v>
-      </c>
+        <v>7.6653257456828886E-5</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:19">
       <c r="A8">
-        <v>77</v>
+        <v>1237</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>89.754000000000005</v>
       </c>
       <c r="D8">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>100272</v>
+        <v>77133</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(A8,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>243</v>
+        <v>461</v>
       </c>
       <c r="J8">
         <f>VLOOKUP(A8,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.53125</v>
+        <v>4.802083333333333</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>8.2785518053375196E-5</v>
+        <v>1.5705400750043607E-4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>146</v>
+      </c>
+      <c r="N8">
+        <f>SUM(I2:I76)</f>
+        <v>116125</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:19">
       <c r="A9">
-        <v>20934</v>
+        <v>1242</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>89.754000000000005</v>
       </c>
       <c r="D9">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>1764936</v>
+        <v>77133</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(A9,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>16103</v>
+        <v>416</v>
       </c>
       <c r="J9">
         <f>VLOOKUP(A9,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>167.73958333333334</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>5.4859884658991801E-3</v>
+        <v>1.417233560090703E-4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>145</v>
+      </c>
+      <c r="N9">
+        <v>2690674</v>
+      </c>
+      <c r="O9">
+        <f>N8/N9</f>
+        <v>4.3158331332595473E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:19">
       <c r="A10">
-        <v>167</v>
+        <v>10414</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>90.164000000000001</v>
       </c>
       <c r="D10">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>100272</v>
+        <v>77133</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(A10,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>775</v>
+        <v>279</v>
       </c>
       <c r="J10">
         <f>VLOOKUP(A10,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>8.0729166666666661</v>
+        <v>2.90625</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>2.6402788679574395E-4</v>
+        <v>9.5050039246467817E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:19">
       <c r="A11">
-        <v>5150</v>
+        <v>3351</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>90.688000000000002</v>
       </c>
       <c r="D11">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E11" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>152704</v>
+        <v>77133</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(A11,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>282</v>
+        <v>138</v>
       </c>
       <c r="J11">
         <f>VLOOKUP(A11,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.9375</v>
+        <v>1.4375</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>9.6072082679225538E-5</v>
+        <v>4.7013997906855048E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:19">
       <c r="A12">
-        <v>5943</v>
+        <v>6218</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>90.837000000000003</v>
       </c>
       <c r="D12">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>182</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>1529017</v>
+        <v>77133</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I12">
         <f>VLOOKUP(A12,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>936</v>
+        <v>728</v>
       </c>
       <c r="J12">
         <f>VLOOKUP(A12,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>9.75</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>3.1887755102040814E-4</v>
+        <v>2.48015873015873E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:19">
       <c r="A13">
-        <v>4999</v>
+        <v>4020</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>91.27</v>
       </c>
       <c r="D13">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E13" t="s">
-        <v>193</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>194</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>341161</v>
+        <v>77133</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I13">
         <f>VLOOKUP(A13,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>6514</v>
+        <v>199</v>
       </c>
       <c r="J13">
         <f>VLOOKUP(A13,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>67.854166666666671</v>
+        <v>2.0729166666666665</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>2.2191969736612594E-3</v>
+        <v>6.7795547706261987E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:19">
       <c r="A14">
-        <v>15332</v>
+        <v>10929</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="C14">
-        <v>99.6</v>
+        <v>92</v>
       </c>
       <c r="D14">
         <v>250</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="G14">
-        <v>77133</v>
+        <v>198431</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I14">
         <f>VLOOKUP(A14,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>1432</v>
+        <v>163</v>
       </c>
       <c r="J14">
         <f>VLOOKUP(A14,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>14.916666666666666</v>
+        <v>1.6979166666666667</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>4.8785539856968424E-4</v>
+        <v>5.5531026513169373E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:19">
       <c r="A15">
-        <v>15304</v>
+        <v>5754</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C15">
-        <v>99.597999999999999</v>
+        <v>92.275999999999996</v>
       </c>
       <c r="D15">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G15">
         <v>77133</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I15">
         <f>VLOOKUP(A15,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="J15">
         <f>VLOOKUP(A15,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.6041666666666665</v>
+        <v>1.5520833333333333</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>8.5170286063143198E-5</v>
+        <v>5.076149049363335E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:19">
       <c r="A16">
-        <v>14244</v>
+        <v>14692</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>99.516999999999996</v>
+        <v>92.43</v>
       </c>
       <c r="D16">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>1764936</v>
+        <v>77133</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I16">
         <f>VLOOKUP(A16,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>285</v>
+        <v>696</v>
       </c>
       <c r="J16">
         <f>VLOOKUP(A16,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.96875</v>
+        <v>7.25</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>9.7094126111983258E-5</v>
+        <v>2.3711407639979068E-4</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>72</v>
+        <v>3340</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C17">
-        <v>99.516999999999996</v>
+        <v>92.43</v>
       </c>
       <c r="D17">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>1764936</v>
+        <v>77133</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I17">
         <f>VLOOKUP(A17,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>560</v>
+        <v>184</v>
       </c>
       <c r="J17">
         <f>VLOOKUP(A17,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>5.833333333333333</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>1.9078144078144078E-4</v>
+        <v>6.2685330542473398E-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>5148</v>
+        <v>15056</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C18">
-        <v>99.516999999999996</v>
+        <v>94.4</v>
       </c>
       <c r="D18">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>1764936</v>
+        <v>77133</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I18">
         <f>VLOOKUP(A18,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>1011</v>
+        <v>804</v>
       </c>
       <c r="J18">
         <f>VLOOKUP(A18,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>10.53125</v>
+        <v>8.375</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>3.4442863683935114E-4</v>
+        <v>2.7390763997906854E-4</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>5146</v>
+        <v>15058</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C19">
-        <v>99.516999999999996</v>
+        <v>95.2</v>
       </c>
       <c r="D19">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>1764936</v>
+        <v>77133</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I19">
         <f>VLOOKUP(A19,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>752</v>
+        <v>268</v>
       </c>
       <c r="J19">
         <f>VLOOKUP(A19,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>7.833333333333333</v>
+        <v>2.7916666666666665</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>2.5619222047793477E-4</v>
+        <v>9.1302546659689508E-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>5147</v>
+        <v>15039</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C20">
-        <v>99.516999999999996</v>
+        <v>95.6</v>
       </c>
       <c r="D20">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="G20">
-        <v>1764936</v>
+        <v>77133</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I20">
         <f>VLOOKUP(A20,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>2464</v>
+        <v>584</v>
       </c>
       <c r="J20">
         <f>VLOOKUP(A20,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>25.666666666666668</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>8.3943833943833949E-4</v>
+        <v>1.9895778824350252E-4</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>5145</v>
+        <v>1280</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="C21">
-        <v>99.516999999999996</v>
+        <v>96</v>
       </c>
       <c r="D21">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>1764936</v>
+        <v>77133</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I21">
         <f>VLOOKUP(A21,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>650</v>
+        <v>139</v>
       </c>
       <c r="J21">
         <f>VLOOKUP(A21,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>6.770833333333333</v>
+        <v>1.4479166666666667</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>2.2144274376417232E-4</v>
+        <v>4.7354679051107622E-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>20937</v>
+        <v>6490</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="C22">
-        <v>99.516999999999996</v>
+        <v>96.031999999999996</v>
       </c>
       <c r="D22">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>1764936</v>
+        <v>77133</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I22">
         <f>VLOOKUP(A22,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>462</v>
+        <v>1048</v>
       </c>
       <c r="J22">
         <f>VLOOKUP(A22,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>4.8125</v>
+        <v>10.916666666666666</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>1.5739468864468865E-4</v>
+        <v>3.5703383917669632E-4</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>2590</v>
+        <v>15099</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C23">
-        <v>99.2</v>
+        <v>96.4</v>
       </c>
       <c r="D23">
         <v>250</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="G23">
-        <v>515363</v>
+        <v>77133</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I23">
         <f>VLOOKUP(A23,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>226</v>
+        <v>1410</v>
       </c>
       <c r="J23">
         <f>VLOOKUP(A23,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.3541666666666665</v>
+        <v>14.6875</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>7.699393860108146E-5</v>
+        <v>4.803604133961277E-4</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>5944</v>
+        <v>5617</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="C24">
-        <v>99.2</v>
+        <v>96.4</v>
       </c>
       <c r="D24">
         <v>250</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="F24" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="G24">
-        <v>152704</v>
+        <v>77133</v>
       </c>
       <c r="H24" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I24">
         <f>VLOOKUP(A24,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>439</v>
+        <v>759</v>
       </c>
       <c r="J24">
         <f>VLOOKUP(A24,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>4.572916666666667</v>
+        <v>7.90625</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>1.4955902232687948E-4</v>
+        <v>2.5857698848770277E-4</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>5005</v>
+        <v>14196</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="C25">
-        <v>98.406000000000006</v>
+        <v>97.581000000000003</v>
       </c>
       <c r="D25">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="G25">
-        <v>152704</v>
+        <v>56765</v>
       </c>
       <c r="H25" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I25">
         <f>VLOOKUP(A25,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>595</v>
+        <v>288</v>
       </c>
       <c r="J25">
         <f>VLOOKUP(A25,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>6.197916666666667</v>
+        <v>3</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>2.0270528083028084E-4</v>
+        <v>9.8116169544740979E-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>15335</v>
+        <v>5485</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="C26">
-        <v>98.4</v>
+        <v>97.6</v>
       </c>
       <c r="D26">
         <v>250</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <v>77133</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I26">
         <f>VLOOKUP(A26,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>138</v>
+        <v>821</v>
       </c>
       <c r="J26">
         <f>VLOOKUP(A26,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.4375</v>
+        <v>8.5520833333333339</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>4.7013997906855048E-5</v>
+        <v>2.796992194313623E-4</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>92</v>
+        <v>3485</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C27">
-        <v>98.4</v>
+        <v>97.6</v>
       </c>
       <c r="D27">
         <v>250</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="G27">
-        <v>64923</v>
+        <v>77133</v>
       </c>
       <c r="H27" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I27">
         <f>VLOOKUP(A27,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>1483</v>
+        <v>167</v>
       </c>
       <c r="J27">
         <f>VLOOKUP(A27,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>15.447916666666666</v>
+        <v>1.7395833333333333</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>5.0523013692656553E-4</v>
+        <v>5.6893751090179661E-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>15302</v>
+        <v>1124</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>98.4</v>
+        <v>98</v>
       </c>
       <c r="D28">
         <v>250</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G28">
         <v>77133</v>
       </c>
       <c r="H28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I28">
         <f>VLOOKUP(A28,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>431</v>
+        <v>261</v>
       </c>
       <c r="J28">
         <f>VLOOKUP(A28,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>4.489583333333333</v>
+        <v>2.71875</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>1.4683357317285889E-4</v>
+        <v>8.8917778649921507E-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>15174</v>
+        <v>15335</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>98.4</v>
@@ -17193,3453 +17060,1856 @@
         <v>250</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>947086</v>
+        <v>77133</v>
       </c>
       <c r="H29" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I29">
         <f>VLOOKUP(A29,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>1613</v>
+        <v>138</v>
       </c>
       <c r="J29">
         <f>VLOOKUP(A29,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>16.802083333333332</v>
+        <v>1.4375</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>5.495186856793999E-4</v>
+        <v>4.7013997906855048E-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>15175</v>
+        <v>15304</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="C30">
-        <v>98.4</v>
+        <v>99.597999999999999</v>
       </c>
       <c r="D30">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>947086</v>
+        <v>77133</v>
       </c>
       <c r="H30" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I30">
         <f>VLOOKUP(A30,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="J30">
         <f>VLOOKUP(A30,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.6145833333333333</v>
+        <v>2.6041666666666665</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>5.2805577359148785E-5</v>
+        <v>8.5170286063143198E-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>15304</v>
+        <v>15332</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="C31">
-        <v>98.007999999999996</v>
+        <v>99.6</v>
       </c>
       <c r="D31">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="G31">
-        <v>198431</v>
+        <v>77133</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I31">
         <f>VLOOKUP(A31,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>250</v>
+        <v>1432</v>
       </c>
       <c r="J31">
         <f>VLOOKUP(A31,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.6041666666666665</v>
+        <v>14.916666666666666</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>8.5170286063143198E-5</v>
+        <v>4.8785539856968424E-4</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>1124</v>
+        <v>15302</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C32">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G32">
         <v>77133</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I32">
         <f>VLOOKUP(A32,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>261</v>
+        <v>431</v>
       </c>
       <c r="J32">
         <f>VLOOKUP(A32,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.71875</v>
+        <v>4.489583333333333</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>8.8917778649921507E-5</v>
+        <v>1.4683357317285889E-4</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>15335</v>
+        <v>6048</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C33">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G33">
         <v>77133</v>
       </c>
       <c r="H33" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I33">
         <f>VLOOKUP(A33,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>138</v>
+        <v>430</v>
       </c>
       <c r="J33">
         <f>VLOOKUP(A33,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.4375</v>
+        <v>4.479166666666667</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>4.7013997906855048E-5</v>
+        <v>1.4649289202860633E-4</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>15175</v>
+        <v>6974</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="C34">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D34">
         <v>250</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="G34">
-        <v>100272</v>
+        <v>56765</v>
       </c>
       <c r="H34" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I34">
         <f>VLOOKUP(A34,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="J34">
         <f>VLOOKUP(A34,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.6145833333333333</v>
+        <v>2.03125</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
-        <v>5.2805577359148785E-5</v>
+        <f t="shared" ref="K34:K65" si="1">J34/30576</f>
+        <v>6.6432823129251707E-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>5882</v>
+        <v>1853</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>98</v>
+        <v>89.6</v>
       </c>
       <c r="D35">
         <v>250</v>
       </c>
       <c r="E35" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>127148</v>
+        <v>91750</v>
       </c>
       <c r="H35" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="I35">
         <f>VLOOKUP(A35,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>871</v>
+        <v>177</v>
       </c>
       <c r="J35">
         <f>VLOOKUP(A35,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>9.0729166666666661</v>
+        <v>1.84375</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
-        <v>2.967332766439909E-4</v>
+        <f t="shared" si="1"/>
+        <v>6.030056253270539E-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>5884</v>
+        <v>21231</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="C36">
-        <v>98</v>
+        <v>89.96</v>
       </c>
       <c r="D36">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E36" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="G36">
-        <v>127148</v>
+        <v>218296</v>
       </c>
       <c r="H36" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="I36">
         <f>VLOOKUP(A36,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="J36">
         <f>VLOOKUP(A36,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.625</v>
+        <v>2.5</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
-        <v>5.3146258503401359E-5</v>
+        <f t="shared" si="1"/>
+        <v>8.1763474620617476E-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>5943</v>
+        <v>21233</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="C37">
-        <v>98</v>
+        <v>90.361000000000004</v>
       </c>
       <c r="D37">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E37" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="G37">
-        <v>238910</v>
+        <v>218296</v>
       </c>
       <c r="H37" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="I37">
         <f>VLOOKUP(A37,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>936</v>
+        <v>162</v>
       </c>
       <c r="J37">
         <f>VLOOKUP(A37,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>9.75</v>
+        <v>1.6875</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
-        <v>3.1887755102040814E-4</v>
+        <f t="shared" si="1"/>
+        <v>5.51903453689168E-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>3485</v>
+        <v>10344</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C38">
-        <v>97.6</v>
+        <v>89.242999999999995</v>
       </c>
       <c r="D38">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G38">
-        <v>77133</v>
+        <v>156588</v>
       </c>
       <c r="H38" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="I38">
         <f>VLOOKUP(A38,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>167</v>
+        <v>647</v>
       </c>
       <c r="J38">
         <f>VLOOKUP(A38,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.7395833333333333</v>
+        <v>6.739583333333333</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
-        <v>5.6893751090179661E-5</v>
+        <f t="shared" si="1"/>
+        <v>2.2042070033141461E-4</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>5485</v>
+        <v>18795</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="C39">
-        <v>97.6</v>
+        <v>89.242999999999995</v>
       </c>
       <c r="D39">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E39" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G39">
-        <v>77133</v>
+        <v>156588</v>
       </c>
       <c r="H39" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="I39">
         <f>VLOOKUP(A39,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>821</v>
+        <v>393</v>
       </c>
       <c r="J39">
         <f>VLOOKUP(A39,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>8.5520833333333339</v>
+        <v>4.09375</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
-        <v>2.796992194313623E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.3388768969126112E-4</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>15332</v>
+        <v>18796</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C40">
-        <v>97.6</v>
+        <v>89.242999999999995</v>
       </c>
       <c r="D40">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G40">
-        <v>77133</v>
+        <v>156588</v>
       </c>
       <c r="H40" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="I40">
         <f>VLOOKUP(A40,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>1432</v>
+        <v>353</v>
       </c>
       <c r="J40">
         <f>VLOOKUP(A40,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>14.916666666666666</v>
+        <v>3.6770833333333335</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
-        <v>4.8785539856968424E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.2026044392115821E-4</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>14196</v>
+        <v>10355</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="C41">
-        <v>97.581000000000003</v>
+        <v>89.242999999999995</v>
       </c>
       <c r="D41">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G41">
-        <v>56765</v>
+        <v>156588</v>
       </c>
       <c r="H41" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="I41">
         <f>VLOOKUP(A41,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="J41">
         <f>VLOOKUP(A41,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="K41">
-        <f t="shared" si="0"/>
-        <v>9.8116169544740979E-5</v>
+        <f t="shared" si="1"/>
+        <v>7.3587127158555724E-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>82</v>
+        <v>18794</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="C42">
-        <v>97.2</v>
+        <v>89.641000000000005</v>
       </c>
       <c r="D42">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G42">
-        <v>31436</v>
+        <v>156588</v>
       </c>
       <c r="H42" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="I42">
         <f>VLOOKUP(A42,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>937</v>
+        <v>53590</v>
       </c>
       <c r="J42">
         <f>VLOOKUP(A42,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>9.7604166666666661</v>
+        <v>558.22916666666663</v>
       </c>
       <c r="K42">
-        <f t="shared" si="0"/>
-        <v>3.1921823216466072E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.8257102520495377E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>5485</v>
+        <v>10359</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="C43">
-        <v>97.2</v>
+        <v>89.6</v>
       </c>
       <c r="D43">
         <v>250</v>
       </c>
       <c r="E43" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="G43">
-        <v>77133</v>
+        <v>454144</v>
       </c>
       <c r="H43" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="I43">
         <f>VLOOKUP(A43,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>821</v>
+        <v>218</v>
       </c>
       <c r="J43">
         <f>VLOOKUP(A43,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>8.5520833333333339</v>
+        <v>2.2708333333333335</v>
       </c>
       <c r="K43">
-        <f t="shared" si="0"/>
-        <v>2.796992194313623E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.4268489447060885E-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44">
-        <v>66</v>
+        <v>6359</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="C44">
-        <v>96.85</v>
+        <v>80</v>
       </c>
       <c r="D44">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="F44" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="G44">
-        <v>152704</v>
+        <v>155900</v>
       </c>
       <c r="H44" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I44">
         <f>VLOOKUP(A44,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>857</v>
+        <v>176</v>
       </c>
       <c r="J44">
         <f>VLOOKUP(A44,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>8.9270833333333339</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="K44">
-        <f t="shared" si="0"/>
-        <v>2.9196374062445495E-4</v>
+        <f t="shared" si="1"/>
+        <v>5.9959881388452816E-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45">
-        <v>750</v>
+        <v>5622</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="C45">
-        <v>96.825000000000003</v>
+        <v>87.2</v>
       </c>
       <c r="D45">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="F45" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="G45">
-        <v>88149</v>
+        <v>155900</v>
       </c>
       <c r="H45" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I45">
         <f>VLOOKUP(A45,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>352</v>
+        <v>229</v>
       </c>
       <c r="J45">
         <f>VLOOKUP(A45,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>3.6666666666666665</v>
+        <v>2.3854166666666665</v>
       </c>
       <c r="K45">
-        <f t="shared" si="0"/>
-        <v>1.1991976277690563E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.8015982033839167E-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46">
-        <v>6974</v>
+        <v>5483</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C46">
-        <v>96.4</v>
+        <v>90.195999999999998</v>
       </c>
       <c r="D46">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="G46">
-        <v>86473</v>
+        <v>155900</v>
       </c>
       <c r="H46" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="I46">
         <f>VLOOKUP(A46,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>195</v>
+        <v>415</v>
       </c>
       <c r="J46">
         <f>VLOOKUP(A46,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.03125</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="K46">
-        <f t="shared" si="0"/>
-        <v>6.6432823129251707E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.4138267486481774E-4</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47">
-        <v>5617</v>
+        <v>748</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="C47">
-        <v>96.4</v>
+        <v>92.8</v>
       </c>
       <c r="D47">
         <v>250</v>
       </c>
       <c r="E47" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G47">
-        <v>77133</v>
+        <v>100272</v>
       </c>
       <c r="H47" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I47">
         <f>VLOOKUP(A47,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>759</v>
+        <v>283</v>
       </c>
       <c r="J47">
         <f>VLOOKUP(A47,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>7.90625</v>
+        <v>2.9479166666666665</v>
       </c>
       <c r="K47">
-        <f t="shared" si="0"/>
-        <v>2.5857698848770277E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.6412763823478098E-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48">
-        <v>15099</v>
+        <v>750</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="C48">
-        <v>96.4</v>
+        <v>96.825000000000003</v>
       </c>
       <c r="D48">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="G48">
-        <v>77133</v>
+        <v>88149</v>
       </c>
       <c r="H48" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I48">
         <f>VLOOKUP(A48,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>1410</v>
+        <v>352</v>
       </c>
       <c r="J48">
         <f>VLOOKUP(A48,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>14.6875</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="K48">
-        <f t="shared" si="0"/>
-        <v>4.803604133961277E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.1991976277690563E-4</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49">
-        <v>6490</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="C49">
-        <v>96.031999999999996</v>
+        <v>96.85</v>
       </c>
       <c r="D49">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E49" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="G49">
-        <v>77133</v>
+        <v>152704</v>
       </c>
       <c r="H49" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I49">
         <f>VLOOKUP(A49,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>1048</v>
+        <v>857</v>
       </c>
       <c r="J49">
         <f>VLOOKUP(A49,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>10.916666666666666</v>
+        <v>8.9270833333333339</v>
       </c>
       <c r="K49">
-        <f t="shared" si="0"/>
-        <v>3.5703383917669632E-4</v>
+        <f t="shared" si="1"/>
+        <v>2.9196374062445495E-4</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50">
-        <v>77</v>
+        <v>5882</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C50">
-        <v>96.016000000000005</v>
+        <v>98</v>
       </c>
       <c r="D50">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E50" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="G50">
-        <v>100272</v>
+        <v>127148</v>
       </c>
       <c r="H50" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I50">
         <f>VLOOKUP(A50,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>243</v>
+        <v>871</v>
       </c>
       <c r="J50">
         <f>VLOOKUP(A50,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.53125</v>
+        <v>9.0729166666666661</v>
       </c>
       <c r="K50">
-        <f t="shared" si="0"/>
-        <v>8.2785518053375196E-5</v>
+        <f t="shared" si="1"/>
+        <v>2.967332766439909E-4</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51">
-        <v>1280</v>
+        <v>5884</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="C51">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D51">
         <v>250</v>
       </c>
       <c r="E51" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="G51">
-        <v>77133</v>
+        <v>127148</v>
       </c>
       <c r="H51" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I51">
         <f>VLOOKUP(A51,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="J51">
         <f>VLOOKUP(A51,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.4479166666666667</v>
+        <v>1.625</v>
       </c>
       <c r="K51">
-        <f t="shared" si="0"/>
-        <v>4.7354679051107622E-5</v>
+        <f t="shared" si="1"/>
+        <v>5.3146258503401359E-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52">
-        <v>15098</v>
+        <v>15174</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="C52">
-        <v>96</v>
+        <v>98.4</v>
       </c>
       <c r="D52">
         <v>250</v>
       </c>
       <c r="E52" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="G52">
-        <v>77133</v>
+        <v>947086</v>
       </c>
       <c r="H52" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I52">
         <f>VLOOKUP(A52,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>1828</v>
+        <v>1613</v>
       </c>
       <c r="J52">
         <f>VLOOKUP(A52,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>19.041666666666668</v>
+        <v>16.802083333333332</v>
       </c>
       <c r="K52">
-        <f t="shared" si="0"/>
-        <v>6.227651316937032E-4</v>
+        <f t="shared" si="1"/>
+        <v>5.495186856793999E-4</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53">
-        <v>15099</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="C53">
-        <v>96</v>
+        <v>98.4</v>
       </c>
       <c r="D53">
         <v>250</v>
       </c>
       <c r="E53" t="s">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="G53">
-        <v>77133</v>
+        <v>64923</v>
       </c>
       <c r="H53" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I53">
         <f>VLOOKUP(A53,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>1410</v>
+        <v>1483</v>
       </c>
       <c r="J53">
         <f>VLOOKUP(A53,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>14.6875</v>
+        <v>15.447916666666666</v>
       </c>
       <c r="K53">
-        <f t="shared" si="0"/>
-        <v>4.803604133961277E-4</v>
+        <f t="shared" si="1"/>
+        <v>5.0523013692656553E-4</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54">
-        <v>15039</v>
+        <v>15175</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C54">
-        <v>95.6</v>
+        <v>98.4</v>
       </c>
       <c r="D54">
         <v>250</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F54" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="G54">
-        <v>77133</v>
+        <v>947086</v>
       </c>
       <c r="H54" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I54">
         <f>VLOOKUP(A54,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>584</v>
+        <v>155</v>
       </c>
       <c r="J54">
         <f>VLOOKUP(A54,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>6.083333333333333</v>
+        <v>1.6145833333333333</v>
       </c>
       <c r="K54">
-        <f t="shared" si="0"/>
-        <v>1.9895778824350252E-4</v>
+        <f t="shared" si="1"/>
+        <v>5.2805577359148785E-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55">
-        <v>14196</v>
+        <v>5005</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C55">
-        <v>95.6</v>
+        <v>98.406000000000006</v>
       </c>
       <c r="D55">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="G55">
-        <v>77133</v>
+        <v>152704</v>
       </c>
       <c r="H55" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I55">
         <f>VLOOKUP(A55,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>288</v>
+        <v>595</v>
       </c>
       <c r="J55">
         <f>VLOOKUP(A55,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>3</v>
+        <v>6.197916666666667</v>
       </c>
       <c r="K55">
-        <f t="shared" si="0"/>
-        <v>9.8116169544740979E-5</v>
+        <f t="shared" si="1"/>
+        <v>2.0270528083028084E-4</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56">
-        <v>5617</v>
+        <v>5944</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C56">
-        <v>95.6</v>
+        <v>99.2</v>
       </c>
       <c r="D56">
         <v>250</v>
       </c>
       <c r="E56" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="G56">
-        <v>77133</v>
+        <v>152704</v>
       </c>
       <c r="H56" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I56">
         <f>VLOOKUP(A56,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>759</v>
+        <v>439</v>
       </c>
       <c r="J56">
         <f>VLOOKUP(A56,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>7.90625</v>
+        <v>4.572916666666667</v>
       </c>
       <c r="K56">
-        <f t="shared" si="0"/>
-        <v>2.5857698848770277E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.4955902232687948E-4</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57">
-        <v>5005</v>
+        <v>2590</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="C57">
-        <v>95.238</v>
+        <v>99.2</v>
       </c>
       <c r="D57">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="E57" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="F57" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="G57">
-        <v>1955569</v>
+        <v>515363</v>
       </c>
       <c r="H57" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I57">
         <f>VLOOKUP(A57,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>595</v>
+        <v>226</v>
       </c>
       <c r="J57">
         <f>VLOOKUP(A57,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>6.197916666666667</v>
+        <v>2.3541666666666665</v>
       </c>
       <c r="K57">
-        <f t="shared" si="0"/>
-        <v>2.0270528083028084E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.699393860108146E-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58">
-        <v>66</v>
+        <v>5147</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="C58">
-        <v>95.238</v>
+        <v>99.516999999999996</v>
       </c>
       <c r="D58">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="E58" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="F58" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="G58">
-        <v>1955569</v>
+        <v>1764936</v>
       </c>
       <c r="H58" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I58">
         <f>VLOOKUP(A58,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>857</v>
+        <v>2464</v>
       </c>
       <c r="J58">
         <f>VLOOKUP(A58,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>8.9270833333333339</v>
+        <v>25.666666666666668</v>
       </c>
       <c r="K58">
-        <f t="shared" si="0"/>
-        <v>2.9196374062445495E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.3943833943833949E-4</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59">
-        <v>15039</v>
+        <v>5148</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C59">
-        <v>95.2</v>
+        <v>99.516999999999996</v>
       </c>
       <c r="D59">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="E59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G59">
-        <v>77133</v>
+        <v>1764936</v>
       </c>
       <c r="H59" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I59">
         <f>VLOOKUP(A59,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>584</v>
+        <v>1011</v>
       </c>
       <c r="J59">
         <f>VLOOKUP(A59,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>6.083333333333333</v>
+        <v>10.53125</v>
       </c>
       <c r="K59">
-        <f t="shared" si="0"/>
-        <v>1.9895778824350252E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.4442863683935114E-4</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60">
-        <v>15058</v>
+        <v>5146</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C60">
-        <v>95.2</v>
+        <v>99.516999999999996</v>
       </c>
       <c r="D60">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="E60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F60" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G60">
-        <v>77133</v>
+        <v>1764936</v>
       </c>
       <c r="H60" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I60">
         <f>VLOOKUP(A60,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>268</v>
+        <v>752</v>
       </c>
       <c r="J60">
         <f>VLOOKUP(A60,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.7916666666666665</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="K60">
-        <f t="shared" si="0"/>
-        <v>9.1302546659689508E-5</v>
+        <f t="shared" si="1"/>
+        <v>2.5619222047793477E-4</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61">
-        <v>6490</v>
+        <v>5145</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="C61">
-        <v>95.180999999999997</v>
+        <v>99.516999999999996</v>
       </c>
       <c r="D61">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="E61" t="s">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="F61" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G61">
-        <v>77133</v>
+        <v>1764936</v>
       </c>
       <c r="H61" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I61">
         <f>VLOOKUP(A61,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>1048</v>
+        <v>650</v>
       </c>
       <c r="J61">
         <f>VLOOKUP(A61,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>10.916666666666666</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="K61">
-        <f t="shared" si="0"/>
-        <v>3.5703383917669632E-4</v>
+        <f t="shared" si="1"/>
+        <v>2.2144274376417232E-4</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62">
-        <v>5884</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="C62">
-        <v>94.465999999999994</v>
+        <v>99.516999999999996</v>
       </c>
       <c r="D62">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="E62" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="F62" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G62">
-        <v>100272</v>
+        <v>1764936</v>
       </c>
       <c r="H62" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I62">
         <f>VLOOKUP(A62,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>156</v>
+        <v>560</v>
       </c>
       <c r="J62">
         <f>VLOOKUP(A62,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.625</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="K62">
-        <f t="shared" si="0"/>
-        <v>5.3146258503401359E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.9078144078144078E-4</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63">
-        <v>15056</v>
+        <v>20937</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C63">
-        <v>94.4</v>
+        <v>99.516999999999996</v>
       </c>
       <c r="D63">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="E63" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F63" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G63">
-        <v>77133</v>
+        <v>1764936</v>
       </c>
       <c r="H63" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I63">
         <f>VLOOKUP(A63,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>804</v>
+        <v>462</v>
       </c>
       <c r="J63">
         <f>VLOOKUP(A63,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>8.375</v>
+        <v>4.8125</v>
       </c>
       <c r="K63">
-        <f t="shared" si="0"/>
-        <v>2.7390763997906854E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.5739468864468865E-4</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64">
-        <v>5882</v>
+        <v>14244</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="C64">
-        <v>94.4</v>
+        <v>99.516999999999996</v>
       </c>
       <c r="D64">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="E64" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G64">
-        <v>100272</v>
+        <v>1764936</v>
       </c>
       <c r="H64" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I64">
         <f>VLOOKUP(A64,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>871</v>
+        <v>285</v>
       </c>
       <c r="J64">
         <f>VLOOKUP(A64,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>9.0729166666666661</v>
+        <v>2.96875</v>
       </c>
       <c r="K64">
-        <f t="shared" si="0"/>
-        <v>2.967332766439909E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.7094126111983258E-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65">
-        <v>6048</v>
+        <v>20934</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="C65">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D65">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G65">
-        <v>77133</v>
+        <v>1764936</v>
       </c>
       <c r="H65" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I65">
         <f>VLOOKUP(A65,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>430</v>
+        <v>16103</v>
       </c>
       <c r="J65">
         <f>VLOOKUP(A65,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>4.479166666666667</v>
+        <v>167.73958333333334</v>
       </c>
       <c r="K65">
-        <f t="shared" si="0"/>
-        <v>1.4649289202860633E-4</v>
+        <f t="shared" si="1"/>
+        <v>5.4859884658991801E-3</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66">
-        <v>15058</v>
+        <v>4999</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="C66">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D66">
         <v>250</v>
       </c>
       <c r="E66" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="F66" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="G66">
-        <v>77133</v>
+        <v>341161</v>
       </c>
       <c r="H66" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I66">
         <f>VLOOKUP(A66,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>268</v>
+        <v>6514</v>
       </c>
       <c r="J66">
         <f>VLOOKUP(A66,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.7916666666666665</v>
+        <v>67.854166666666671</v>
       </c>
       <c r="K66">
-        <f t="shared" si="0"/>
-        <v>9.1302546659689508E-5</v>
+        <f t="shared" ref="K66:K97" si="2">J66/30576</f>
+        <v>2.2191969736612594E-3</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67">
-        <v>15056</v>
+        <v>747</v>
       </c>
       <c r="B67" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C67">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D67">
         <v>250</v>
       </c>
       <c r="E67" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G67">
-        <v>77133</v>
+        <v>100272</v>
       </c>
       <c r="H67" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I67">
-        <f>VLOOKUP(A67,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>804</v>
+        <v>2011</v>
       </c>
       <c r="J67">
         <f>VLOOKUP(A67,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>8.375</v>
+        <v>20.947916666666668</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K119" si="1">J67/30576</f>
-        <v>2.7390763997906854E-4</v>
+        <f t="shared" si="2"/>
+        <v>6.8510978109192404E-4</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68">
-        <v>748</v>
+        <v>5943</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="C68">
-        <v>92.8</v>
+        <v>100</v>
       </c>
       <c r="D68">
         <v>250</v>
       </c>
       <c r="E68" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="G68">
-        <v>100272</v>
+        <v>1529017</v>
       </c>
       <c r="H68" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I68">
         <f>VLOOKUP(A68,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>283</v>
+        <v>936</v>
       </c>
       <c r="J68">
         <f>VLOOKUP(A68,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.9479166666666665</v>
+        <v>9.75</v>
       </c>
       <c r="K68">
-        <f t="shared" si="1"/>
-        <v>9.6412763823478098E-5</v>
+        <f t="shared" si="2"/>
+        <v>3.1887755102040814E-4</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69">
-        <v>14692</v>
+        <v>167</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="C69">
-        <v>92.43</v>
+        <v>100</v>
       </c>
       <c r="D69">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="F69" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G69">
-        <v>77133</v>
+        <v>100272</v>
       </c>
       <c r="H69" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I69">
         <f>VLOOKUP(A69,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>696</v>
+        <v>775</v>
       </c>
       <c r="J69">
         <f>VLOOKUP(A69,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>7.25</v>
+        <v>8.0729166666666661</v>
       </c>
       <c r="K69">
-        <f t="shared" si="1"/>
-        <v>2.3711407639979068E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.6402788679574395E-4</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70">
-        <v>3340</v>
+        <v>5150</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="C70">
-        <v>92.43</v>
+        <v>100</v>
       </c>
       <c r="D70">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E70" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="G70">
-        <v>77133</v>
+        <v>152704</v>
       </c>
       <c r="H70" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I70">
         <f>VLOOKUP(A70,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>184</v>
+        <v>282</v>
       </c>
       <c r="J70">
         <f>VLOOKUP(A70,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.9166666666666667</v>
+        <v>2.9375</v>
       </c>
       <c r="K70">
-        <f t="shared" si="1"/>
-        <v>6.2685330542473398E-5</v>
+        <f t="shared" si="2"/>
+        <v>9.6072082679225538E-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71">
-        <v>5754</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="C71">
-        <v>92.275999999999996</v>
+        <v>100</v>
       </c>
       <c r="D71">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G71">
-        <v>77133</v>
+        <v>100272</v>
       </c>
       <c r="H71" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I71">
         <f>VLOOKUP(A71,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>149</v>
+        <v>243</v>
       </c>
       <c r="J71">
         <f>VLOOKUP(A71,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.5520833333333333</v>
+        <v>2.53125</v>
       </c>
       <c r="K71">
-        <f t="shared" si="1"/>
-        <v>5.076149049363335E-5</v>
+        <f t="shared" si="2"/>
+        <v>8.2785518053375196E-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72">
-        <v>14692</v>
+        <v>232</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C72">
-        <v>92.031999999999996</v>
+        <v>100</v>
       </c>
       <c r="D72">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F72" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="G72">
-        <v>77133</v>
+        <v>35125</v>
       </c>
       <c r="H72" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I72">
         <f>VLOOKUP(A72,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>696</v>
+        <v>190</v>
       </c>
       <c r="J72">
         <f>VLOOKUP(A72,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>7.25</v>
+        <v>1.9791666666666667</v>
       </c>
       <c r="K72">
-        <f t="shared" si="1"/>
-        <v>2.3711407639979068E-4</v>
+        <f t="shared" si="2"/>
+        <v>6.4729417407988839E-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73">
-        <v>3340</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C73">
-        <v>92</v>
+        <v>97.2</v>
       </c>
       <c r="D73">
         <v>250</v>
       </c>
       <c r="E73" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F73" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="G73">
-        <v>77133</v>
+        <v>31436</v>
       </c>
       <c r="H73" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="I73">
         <f>VLOOKUP(A73,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>184</v>
+        <v>937</v>
       </c>
       <c r="J73">
         <f>VLOOKUP(A73,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.9166666666666667</v>
+        <v>9.7604166666666661</v>
       </c>
       <c r="K73">
-        <f t="shared" si="1"/>
-        <v>6.2685330542473398E-5</v>
+        <f t="shared" si="2"/>
+        <v>3.1921823216466072E-4</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74">
-        <v>10929</v>
+        <v>3337</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="C74">
-        <v>92</v>
+        <v>82.4</v>
       </c>
       <c r="D74">
         <v>250</v>
       </c>
       <c r="E74" t="s">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="G74">
-        <v>198431</v>
+        <v>70448</v>
       </c>
       <c r="H74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I74">
         <f>VLOOKUP(A74,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="J74">
         <f>VLOOKUP(A74,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.6979166666666667</v>
+        <v>3.6041666666666665</v>
       </c>
       <c r="K74">
-        <f t="shared" si="1"/>
-        <v>5.5531026513169373E-5</v>
+        <f t="shared" si="2"/>
+        <v>1.1787567591139019E-4</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75">
-        <v>4020</v>
+        <v>192</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C75">
-        <v>91.27</v>
+        <v>100</v>
       </c>
       <c r="D75">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F75" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G75">
-        <v>77133</v>
+        <v>41875</v>
       </c>
       <c r="H75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I75">
-        <f>VLOOKUP(A75,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>199</v>
+        <v>873</v>
       </c>
       <c r="J75">
         <f>VLOOKUP(A75,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.0729166666666665</v>
+        <v>9.09375</v>
       </c>
       <c r="K75">
-        <f t="shared" si="1"/>
-        <v>6.7795547706261987E-5</v>
+        <f t="shared" si="2"/>
+        <v>2.9741463893249607E-4</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76">
-        <v>6218</v>
+        <v>6353</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="C76">
-        <v>90.837000000000003</v>
+        <v>83.73</v>
       </c>
       <c r="D76">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E76" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="F76" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="G76">
-        <v>77133</v>
+        <v>198431</v>
       </c>
       <c r="H76" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="I76">
         <f>VLOOKUP(A76,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>728</v>
+        <v>152</v>
       </c>
       <c r="J76">
         <f>VLOOKUP(A76,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>7.583333333333333</v>
+        <v>1.5833333333333333</v>
       </c>
       <c r="K76">
-        <f t="shared" si="1"/>
-        <v>2.48015873015873E-4</v>
+        <f t="shared" si="2"/>
+        <v>5.1783533926391064E-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77">
-        <v>10929</v>
+        <v>67</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="C77">
-        <v>90.8</v>
+        <v>81.89</v>
       </c>
       <c r="D77">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E77" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="F77" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G77">
-        <v>77133</v>
+        <v>155900</v>
       </c>
       <c r="H77" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="I77">
         <f>VLOOKUP(A77,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>163</v>
+        <v>407</v>
       </c>
       <c r="J77">
         <f>VLOOKUP(A77,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.6979166666666667</v>
+        <v>4.239583333333333</v>
       </c>
       <c r="K77">
-        <f t="shared" si="1"/>
-        <v>5.5531026513169373E-5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78">
-        <v>3351</v>
-      </c>
-      <c r="B78" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78">
-        <v>90.688000000000002</v>
-      </c>
-      <c r="D78">
-        <v>247</v>
-      </c>
-      <c r="E78" t="s">
-        <v>137</v>
-      </c>
-      <c r="F78" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78">
-        <v>77133</v>
-      </c>
-      <c r="H78" t="s">
-        <v>10</v>
-      </c>
-      <c r="I78">
-        <f>VLOOKUP(A78,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>138</v>
-      </c>
-      <c r="J78">
-        <f>VLOOKUP(A78,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.4375</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="1"/>
-        <v>4.7013997906855048E-5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79">
-        <v>21233</v>
-      </c>
-      <c r="B79" t="s">
-        <v>109</v>
-      </c>
-      <c r="C79">
-        <v>90.361000000000004</v>
-      </c>
-      <c r="D79">
-        <v>249</v>
-      </c>
-      <c r="E79" t="s">
-        <v>110</v>
-      </c>
-      <c r="F79" t="s">
-        <v>111</v>
-      </c>
-      <c r="G79">
-        <v>218296</v>
-      </c>
-      <c r="H79" t="s">
-        <v>112</v>
-      </c>
-      <c r="I79">
-        <f>VLOOKUP(A79,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>162</v>
-      </c>
-      <c r="J79">
-        <f>VLOOKUP(A79,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.6875</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="1"/>
-        <v>5.51903453689168E-5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80">
-        <v>5483</v>
-      </c>
-      <c r="B80" t="s">
-        <v>158</v>
-      </c>
-      <c r="C80">
-        <v>90.195999999999998</v>
-      </c>
-      <c r="D80">
-        <v>51</v>
-      </c>
-      <c r="E80" t="s">
-        <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>31</v>
-      </c>
-      <c r="G80">
-        <v>155900</v>
-      </c>
-      <c r="H80" t="s">
-        <v>32</v>
-      </c>
-      <c r="I80">
-        <f>VLOOKUP(A80,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>415</v>
-      </c>
-      <c r="J80">
-        <f>VLOOKUP(A80,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>4.322916666666667</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="1"/>
-        <v>1.4138267486481774E-4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81">
-        <v>10414</v>
-      </c>
-      <c r="B81" t="s">
-        <v>41</v>
-      </c>
-      <c r="C81">
-        <v>90.164000000000001</v>
-      </c>
-      <c r="D81">
-        <v>244</v>
-      </c>
-      <c r="E81" t="s">
-        <v>42</v>
-      </c>
-      <c r="F81" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81">
-        <v>77133</v>
-      </c>
-      <c r="H81" t="s">
-        <v>10</v>
-      </c>
-      <c r="I81">
-        <f>VLOOKUP(A81,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>279</v>
-      </c>
-      <c r="J81">
-        <f>VLOOKUP(A81,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.90625</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="1"/>
-        <v>9.5050039246467817E-5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82">
-        <v>21231</v>
-      </c>
-      <c r="B82" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82">
-        <v>89.96</v>
-      </c>
-      <c r="D82">
-        <v>249</v>
-      </c>
-      <c r="E82" t="s">
-        <v>110</v>
-      </c>
-      <c r="F82" t="s">
-        <v>111</v>
-      </c>
-      <c r="G82">
-        <v>218296</v>
-      </c>
-      <c r="H82" t="s">
-        <v>112</v>
-      </c>
-      <c r="I82">
-        <f>VLOOKUP(A82,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>240</v>
-      </c>
-      <c r="J82">
-        <f>VLOOKUP(A82,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.5</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="1"/>
-        <v>8.1763474620617476E-5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83">
-        <v>1237</v>
-      </c>
-      <c r="B83" t="s">
-        <v>41</v>
-      </c>
-      <c r="C83">
-        <v>89.754000000000005</v>
-      </c>
-      <c r="D83">
-        <v>244</v>
-      </c>
-      <c r="E83" t="s">
-        <v>42</v>
-      </c>
-      <c r="F83" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83">
-        <v>77133</v>
-      </c>
-      <c r="H83" t="s">
-        <v>10</v>
-      </c>
-      <c r="I83">
-        <f>VLOOKUP(A83,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>461</v>
-      </c>
-      <c r="J83">
-        <f>VLOOKUP(A83,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>4.802083333333333</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="1"/>
-        <v>1.5705400750043607E-4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84">
-        <v>1242</v>
-      </c>
-      <c r="B84" t="s">
-        <v>41</v>
-      </c>
-      <c r="C84">
-        <v>89.754000000000005</v>
-      </c>
-      <c r="D84">
-        <v>244</v>
-      </c>
-      <c r="E84" t="s">
-        <v>42</v>
-      </c>
-      <c r="F84" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84">
-        <v>77133</v>
-      </c>
-      <c r="H84" t="s">
-        <v>10</v>
-      </c>
-      <c r="I84">
-        <f>VLOOKUP(A84,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>416</v>
-      </c>
-      <c r="J84">
-        <f>VLOOKUP(A84,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="1"/>
-        <v>1.417233560090703E-4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85">
-        <v>10414</v>
-      </c>
-      <c r="B85" t="s">
-        <v>43</v>
-      </c>
-      <c r="C85">
-        <v>89.754000000000005</v>
-      </c>
-      <c r="D85">
-        <v>244</v>
-      </c>
-      <c r="E85" t="s">
-        <v>44</v>
-      </c>
-      <c r="F85" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85">
-        <v>77133</v>
-      </c>
-      <c r="H85" t="s">
-        <v>10</v>
-      </c>
-      <c r="I85">
-        <f>VLOOKUP(A85,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>279</v>
-      </c>
-      <c r="J85">
-        <f>VLOOKUP(A85,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.90625</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="1"/>
-        <v>9.5050039246467817E-5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86">
-        <v>1237</v>
-      </c>
-      <c r="B86" t="s">
-        <v>37</v>
-      </c>
-      <c r="C86">
-        <v>89.641000000000005</v>
-      </c>
-      <c r="D86">
-        <v>251</v>
-      </c>
-      <c r="E86" t="s">
-        <v>38</v>
-      </c>
-      <c r="F86" t="s">
-        <v>39</v>
-      </c>
-      <c r="G86">
-        <v>156588</v>
-      </c>
-      <c r="H86" t="s">
-        <v>40</v>
-      </c>
-      <c r="I86">
-        <f>VLOOKUP(A86,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>461</v>
-      </c>
-      <c r="J86">
-        <f>VLOOKUP(A86,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>4.802083333333333</v>
-      </c>
-      <c r="K86">
-        <f t="shared" si="1"/>
-        <v>1.5705400750043607E-4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87">
-        <v>6218</v>
-      </c>
-      <c r="B87" t="s">
-        <v>122</v>
-      </c>
-      <c r="C87">
-        <v>89.641000000000005</v>
-      </c>
-      <c r="D87">
-        <v>251</v>
-      </c>
-      <c r="E87" t="s">
-        <v>123</v>
-      </c>
-      <c r="F87" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87">
-        <v>77133</v>
-      </c>
-      <c r="H87" t="s">
-        <v>10</v>
-      </c>
-      <c r="I87">
-        <f>VLOOKUP(A87,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>728</v>
-      </c>
-      <c r="J87">
-        <f>VLOOKUP(A87,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>7.583333333333333</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="1"/>
-        <v>2.48015873015873E-4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88">
-        <v>10351</v>
-      </c>
-      <c r="B88" t="s">
-        <v>140</v>
-      </c>
-      <c r="C88">
-        <v>89.641000000000005</v>
-      </c>
-      <c r="D88">
-        <v>251</v>
-      </c>
-      <c r="E88" t="s">
-        <v>141</v>
-      </c>
-      <c r="F88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88">
-        <v>77133</v>
-      </c>
-      <c r="H88" t="s">
-        <v>10</v>
-      </c>
-      <c r="I88">
-        <f>VLOOKUP(A88,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>225</v>
-      </c>
-      <c r="J88">
-        <f>VLOOKUP(A88,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.34375</v>
-      </c>
-      <c r="K88">
-        <f t="shared" si="1"/>
-        <v>7.6653257456828886E-5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89">
-        <v>18794</v>
-      </c>
-      <c r="B89" t="s">
-        <v>37</v>
-      </c>
-      <c r="C89">
-        <v>89.641000000000005</v>
-      </c>
-      <c r="D89">
-        <v>251</v>
-      </c>
-      <c r="E89" t="s">
-        <v>38</v>
-      </c>
-      <c r="F89" t="s">
-        <v>39</v>
-      </c>
-      <c r="G89">
-        <v>156588</v>
-      </c>
-      <c r="H89" t="s">
-        <v>40</v>
-      </c>
-      <c r="I89">
-        <f>VLOOKUP(A89,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>53590</v>
-      </c>
-      <c r="J89">
-        <f>VLOOKUP(A89,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>558.22916666666663</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="1"/>
-        <v>1.8257102520495377E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90">
-        <v>1853</v>
-      </c>
-      <c r="B90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>89.6</v>
-      </c>
-      <c r="D90">
-        <v>250</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1</v>
-      </c>
-      <c r="F90" t="s">
-        <v>2</v>
-      </c>
-      <c r="G90">
-        <v>91750</v>
-      </c>
-      <c r="H90" t="s">
-        <v>3</v>
-      </c>
-      <c r="I90">
-        <f>VLOOKUP(A90,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>177</v>
-      </c>
-      <c r="J90">
-        <f>VLOOKUP(A90,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.84375</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="1"/>
-        <v>6.030056253270539E-5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91">
-        <v>10359</v>
-      </c>
-      <c r="B91" t="s">
-        <v>59</v>
-      </c>
-      <c r="C91">
-        <v>89.6</v>
-      </c>
-      <c r="D91">
-        <v>250</v>
-      </c>
-      <c r="E91" t="s">
-        <v>60</v>
-      </c>
-      <c r="F91" t="s">
-        <v>61</v>
-      </c>
-      <c r="G91">
-        <v>454144</v>
-      </c>
-      <c r="H91" t="s">
-        <v>62</v>
-      </c>
-      <c r="I91">
-        <f>VLOOKUP(A91,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>218</v>
-      </c>
-      <c r="J91">
-        <f>VLOOKUP(A91,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.2708333333333335</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="1"/>
-        <v>7.4268489447060885E-5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92">
-        <v>10345</v>
-      </c>
-      <c r="B92" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92">
-        <v>89.6</v>
-      </c>
-      <c r="D92">
-        <v>250</v>
-      </c>
-      <c r="E92" t="s">
-        <v>16</v>
-      </c>
-      <c r="F92" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92">
-        <v>77133</v>
-      </c>
-      <c r="H92" t="s">
-        <v>10</v>
-      </c>
-      <c r="I92">
-        <f>VLOOKUP(A92,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>1233</v>
-      </c>
-      <c r="J92">
-        <f>VLOOKUP(A92,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>12.84375</v>
-      </c>
-      <c r="K92">
-        <f t="shared" si="1"/>
-        <v>4.2005985086342228E-4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93">
-        <v>18794</v>
-      </c>
-      <c r="B93" t="s">
-        <v>140</v>
-      </c>
-      <c r="C93">
-        <v>89.6</v>
-      </c>
-      <c r="D93">
-        <v>250</v>
-      </c>
-      <c r="E93" t="s">
-        <v>141</v>
-      </c>
-      <c r="F93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G93">
-        <v>77133</v>
-      </c>
-      <c r="H93" t="s">
-        <v>10</v>
-      </c>
-      <c r="I93">
-        <f>VLOOKUP(A93,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>53590</v>
-      </c>
-      <c r="J93">
-        <f>VLOOKUP(A93,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>558.22916666666663</v>
-      </c>
-      <c r="K93">
-        <f t="shared" si="1"/>
-        <v>1.8257102520495377E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94">
-        <v>10351</v>
-      </c>
-      <c r="B94" t="s">
-        <v>142</v>
-      </c>
-      <c r="C94">
-        <v>89.558000000000007</v>
-      </c>
-      <c r="D94">
-        <v>249</v>
-      </c>
-      <c r="E94" t="s">
-        <v>143</v>
-      </c>
-      <c r="F94" t="s">
-        <v>9</v>
-      </c>
-      <c r="G94">
-        <v>77133</v>
-      </c>
-      <c r="H94" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94">
-        <f>VLOOKUP(A94,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>225</v>
-      </c>
-      <c r="J94">
-        <f>VLOOKUP(A94,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.34375</v>
-      </c>
-      <c r="K94">
-        <f t="shared" si="1"/>
-        <v>7.6653257456828886E-5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95">
-        <v>1853</v>
-      </c>
-      <c r="B95" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95">
-        <v>89.286000000000001</v>
-      </c>
-      <c r="D95">
-        <v>252</v>
-      </c>
-      <c r="E95" t="s">
-        <v>5</v>
-      </c>
-      <c r="F95" t="s">
-        <v>6</v>
-      </c>
-      <c r="G95">
-        <v>698647</v>
-      </c>
-      <c r="H95" t="s">
-        <v>3</v>
-      </c>
-      <c r="I95">
-        <f>VLOOKUP(A95,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>177</v>
-      </c>
-      <c r="J95">
-        <f>VLOOKUP(A95,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.84375</v>
-      </c>
-      <c r="K95">
-        <f t="shared" si="1"/>
-        <v>6.030056253270539E-5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96">
-        <v>1242</v>
-      </c>
-      <c r="B96" t="s">
-        <v>37</v>
-      </c>
-      <c r="C96">
-        <v>89.242999999999995</v>
-      </c>
-      <c r="D96">
-        <v>251</v>
-      </c>
-      <c r="E96" t="s">
-        <v>38</v>
-      </c>
-      <c r="F96" t="s">
-        <v>39</v>
-      </c>
-      <c r="G96">
-        <v>156588</v>
-      </c>
-      <c r="H96" t="s">
-        <v>40</v>
-      </c>
-      <c r="I96">
-        <f>VLOOKUP(A96,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>416</v>
-      </c>
-      <c r="J96">
-        <f>VLOOKUP(A96,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="K96">
-        <f t="shared" si="1"/>
-        <v>1.417233560090703E-4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97">
-        <v>10355</v>
-      </c>
-      <c r="B97" t="s">
-        <v>37</v>
-      </c>
-      <c r="C97">
-        <v>89.242999999999995</v>
-      </c>
-      <c r="D97">
-        <v>251</v>
-      </c>
-      <c r="E97" t="s">
-        <v>38</v>
-      </c>
-      <c r="F97" t="s">
-        <v>39</v>
-      </c>
-      <c r="G97">
-        <v>156588</v>
-      </c>
-      <c r="H97" t="s">
-        <v>40</v>
-      </c>
-      <c r="I97">
-        <f>VLOOKUP(A97,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>216</v>
-      </c>
-      <c r="J97">
-        <f>VLOOKUP(A97,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.25</v>
-      </c>
-      <c r="K97">
-        <f t="shared" si="1"/>
-        <v>7.3587127158555724E-5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98">
-        <v>10344</v>
-      </c>
-      <c r="B98" t="s">
-        <v>37</v>
-      </c>
-      <c r="C98">
-        <v>89.242999999999995</v>
-      </c>
-      <c r="D98">
-        <v>251</v>
-      </c>
-      <c r="E98" t="s">
-        <v>38</v>
-      </c>
-      <c r="F98" t="s">
-        <v>39</v>
-      </c>
-      <c r="G98">
-        <v>156588</v>
-      </c>
-      <c r="H98" t="s">
-        <v>40</v>
-      </c>
-      <c r="I98">
-        <f>VLOOKUP(A98,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>647</v>
-      </c>
-      <c r="J98">
-        <f>VLOOKUP(A98,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>6.739583333333333</v>
-      </c>
-      <c r="K98">
-        <f t="shared" si="1"/>
-        <v>2.2042070033141461E-4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99">
-        <v>18795</v>
-      </c>
-      <c r="B99" t="s">
-        <v>37</v>
-      </c>
-      <c r="C99">
-        <v>89.242999999999995</v>
-      </c>
-      <c r="D99">
-        <v>251</v>
-      </c>
-      <c r="E99" t="s">
-        <v>38</v>
-      </c>
-      <c r="F99" t="s">
-        <v>39</v>
-      </c>
-      <c r="G99">
-        <v>156588</v>
-      </c>
-      <c r="H99" t="s">
-        <v>40</v>
-      </c>
-      <c r="I99">
-        <f>VLOOKUP(A99,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>393</v>
-      </c>
-      <c r="J99">
-        <f>VLOOKUP(A99,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>4.09375</v>
-      </c>
-      <c r="K99">
-        <f t="shared" si="1"/>
-        <v>1.3388768969126112E-4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100">
-        <v>18796</v>
-      </c>
-      <c r="B100" t="s">
-        <v>37</v>
-      </c>
-      <c r="C100">
-        <v>89.242999999999995</v>
-      </c>
-      <c r="D100">
-        <v>251</v>
-      </c>
-      <c r="E100" t="s">
-        <v>38</v>
-      </c>
-      <c r="F100" t="s">
-        <v>39</v>
-      </c>
-      <c r="G100">
-        <v>156588</v>
-      </c>
-      <c r="H100" t="s">
-        <v>40</v>
-      </c>
-      <c r="I100">
-        <f>VLOOKUP(A100,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>353</v>
-      </c>
-      <c r="J100">
-        <f>VLOOKUP(A100,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>3.6770833333333335</v>
-      </c>
-      <c r="K100">
-        <f t="shared" si="1"/>
-        <v>1.2026044392115821E-4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101">
-        <v>10350</v>
-      </c>
-      <c r="B101" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101">
-        <v>89.2</v>
-      </c>
-      <c r="D101">
-        <v>250</v>
-      </c>
-      <c r="E101" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" t="s">
-        <v>9</v>
-      </c>
-      <c r="G101">
-        <v>77133</v>
-      </c>
-      <c r="H101" t="s">
-        <v>10</v>
-      </c>
-      <c r="I101">
-        <f>VLOOKUP(A101,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>228</v>
-      </c>
-      <c r="J101">
-        <f>VLOOKUP(A101,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.375</v>
-      </c>
-      <c r="K101">
-        <f t="shared" si="1"/>
-        <v>7.7675300889586607E-5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102">
-        <v>10345</v>
-      </c>
-      <c r="B102" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102">
-        <v>89.2</v>
-      </c>
-      <c r="D102">
-        <v>250</v>
-      </c>
-      <c r="E102" t="s">
-        <v>18</v>
-      </c>
-      <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102">
-        <v>56765</v>
-      </c>
-      <c r="H102" t="s">
-        <v>10</v>
-      </c>
-      <c r="I102">
-        <f>VLOOKUP(A102,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>1233</v>
-      </c>
-      <c r="J102">
-        <f>VLOOKUP(A102,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>12.84375</v>
-      </c>
-      <c r="K102">
-        <f t="shared" si="1"/>
-        <v>4.2005985086342228E-4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103">
-        <v>10355</v>
-      </c>
-      <c r="B103" t="s">
-        <v>140</v>
-      </c>
-      <c r="C103">
-        <v>89.2</v>
-      </c>
-      <c r="D103">
-        <v>250</v>
-      </c>
-      <c r="E103" t="s">
-        <v>141</v>
-      </c>
-      <c r="F103" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103">
-        <v>77133</v>
-      </c>
-      <c r="H103" t="s">
-        <v>10</v>
-      </c>
-      <c r="I103">
-        <f>VLOOKUP(A103,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>216</v>
-      </c>
-      <c r="J103">
-        <f>VLOOKUP(A103,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.25</v>
-      </c>
-      <c r="K103">
-        <f t="shared" si="1"/>
-        <v>7.3587127158555724E-5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104">
-        <v>10344</v>
-      </c>
-      <c r="B104" t="s">
-        <v>140</v>
-      </c>
-      <c r="C104">
-        <v>89.2</v>
-      </c>
-      <c r="D104">
-        <v>250</v>
-      </c>
-      <c r="E104" t="s">
-        <v>141</v>
-      </c>
-      <c r="F104" t="s">
-        <v>9</v>
-      </c>
-      <c r="G104">
-        <v>77133</v>
-      </c>
-      <c r="H104" t="s">
-        <v>10</v>
-      </c>
-      <c r="I104">
-        <f>VLOOKUP(A104,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>647</v>
-      </c>
-      <c r="J104">
-        <f>VLOOKUP(A104,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>6.739583333333333</v>
-      </c>
-      <c r="K104">
-        <f t="shared" si="1"/>
-        <v>2.2042070033141461E-4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105">
-        <v>18795</v>
-      </c>
-      <c r="B105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C105">
-        <v>89.2</v>
-      </c>
-      <c r="D105">
-        <v>250</v>
-      </c>
-      <c r="E105" t="s">
-        <v>141</v>
-      </c>
-      <c r="F105" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105">
-        <v>77133</v>
-      </c>
-      <c r="H105" t="s">
-        <v>10</v>
-      </c>
-      <c r="I105">
-        <f>VLOOKUP(A105,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>393</v>
-      </c>
-      <c r="J105">
-        <f>VLOOKUP(A105,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>4.09375</v>
-      </c>
-      <c r="K105">
-        <f t="shared" si="1"/>
-        <v>1.3388768969126112E-4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106">
-        <v>18796</v>
-      </c>
-      <c r="B106" t="s">
-        <v>140</v>
-      </c>
-      <c r="C106">
-        <v>89.2</v>
-      </c>
-      <c r="D106">
-        <v>250</v>
-      </c>
-      <c r="E106" t="s">
-        <v>141</v>
-      </c>
-      <c r="F106" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106">
-        <v>77133</v>
-      </c>
-      <c r="H106" t="s">
-        <v>10</v>
-      </c>
-      <c r="I106">
-        <f>VLOOKUP(A106,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>353</v>
-      </c>
-      <c r="J106">
-        <f>VLOOKUP(A106,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>3.6770833333333335</v>
-      </c>
-      <c r="K106">
-        <f t="shared" si="1"/>
-        <v>1.2026044392115821E-4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107">
-        <v>10350</v>
-      </c>
-      <c r="B107" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107">
-        <v>88.8</v>
-      </c>
-      <c r="D107">
-        <v>250</v>
-      </c>
-      <c r="E107" t="s">
-        <v>18</v>
-      </c>
-      <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107">
-        <v>56765</v>
-      </c>
-      <c r="H107" t="s">
-        <v>10</v>
-      </c>
-      <c r="I107">
-        <f>VLOOKUP(A107,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>228</v>
-      </c>
-      <c r="J107">
-        <f>VLOOKUP(A107,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.375</v>
-      </c>
-      <c r="K107">
-        <f t="shared" si="1"/>
-        <v>7.7675300889586607E-5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108">
-        <v>82</v>
-      </c>
-      <c r="B108" t="s">
-        <v>104</v>
-      </c>
-      <c r="C108">
-        <v>88.094999999999999</v>
-      </c>
-      <c r="D108">
-        <v>252</v>
-      </c>
-      <c r="E108" t="s">
-        <v>105</v>
-      </c>
-      <c r="F108" t="s">
-        <v>106</v>
-      </c>
-      <c r="G108">
-        <v>1488470</v>
-      </c>
-      <c r="H108" t="s">
-        <v>14</v>
-      </c>
-      <c r="I108">
-        <f>VLOOKUP(A108,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>937</v>
-      </c>
-      <c r="J108">
-        <f>VLOOKUP(A108,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>9.7604166666666661</v>
-      </c>
-      <c r="K108">
-        <f t="shared" si="1"/>
-        <v>3.1921823216466072E-4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109">
-        <v>3351</v>
-      </c>
-      <c r="B109" t="s">
-        <v>138</v>
-      </c>
-      <c r="C109">
-        <v>87.879000000000005</v>
-      </c>
-      <c r="D109">
-        <v>66</v>
-      </c>
-      <c r="E109" t="s">
-        <v>139</v>
-      </c>
-      <c r="F109" t="s">
-        <v>9</v>
-      </c>
-      <c r="G109">
-        <v>77133</v>
-      </c>
-      <c r="H109" t="s">
-        <v>10</v>
-      </c>
-      <c r="I109">
-        <f>VLOOKUP(A109,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>138</v>
-      </c>
-      <c r="J109">
-        <f>VLOOKUP(A109,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.4375</v>
-      </c>
-      <c r="K109">
-        <f t="shared" si="1"/>
-        <v>4.7013997906855048E-5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110">
-        <v>15488</v>
-      </c>
-      <c r="B110" t="s">
-        <v>107</v>
-      </c>
-      <c r="C110">
-        <v>87.6</v>
-      </c>
-      <c r="D110">
-        <v>250</v>
-      </c>
-      <c r="E110" t="s">
-        <v>108</v>
-      </c>
-      <c r="F110" t="s">
-        <v>9</v>
-      </c>
-      <c r="G110">
-        <v>77133</v>
-      </c>
-      <c r="H110" t="s">
-        <v>10</v>
-      </c>
-      <c r="I110">
-        <f>VLOOKUP(A110,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>848</v>
-      </c>
-      <c r="J110">
-        <f>VLOOKUP(A110,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>8.8333333333333339</v>
-      </c>
-      <c r="K110">
-        <f t="shared" si="1"/>
-        <v>2.8889761032618177E-4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111">
-        <v>5622</v>
-      </c>
-      <c r="B111" t="s">
-        <v>94</v>
-      </c>
-      <c r="C111">
-        <v>87.2</v>
-      </c>
-      <c r="D111">
-        <v>250</v>
-      </c>
-      <c r="E111" t="s">
-        <v>95</v>
-      </c>
-      <c r="F111" t="s">
-        <v>31</v>
-      </c>
-      <c r="G111">
-        <v>155900</v>
-      </c>
-      <c r="H111" t="s">
-        <v>32</v>
-      </c>
-      <c r="I111">
-        <f>VLOOKUP(A111,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>229</v>
-      </c>
-      <c r="J111">
-        <f>VLOOKUP(A111,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>2.3854166666666665</v>
-      </c>
-      <c r="K111">
-        <f t="shared" si="1"/>
-        <v>7.8015982033839167E-5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112">
-        <v>15485</v>
-      </c>
-      <c r="B112" t="s">
-        <v>107</v>
-      </c>
-      <c r="C112">
-        <v>87.2</v>
-      </c>
-      <c r="D112">
-        <v>250</v>
-      </c>
-      <c r="E112" t="s">
-        <v>108</v>
-      </c>
-      <c r="F112" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112">
-        <v>77133</v>
-      </c>
-      <c r="H112" t="s">
-        <v>10</v>
-      </c>
-      <c r="I112">
-        <f>VLOOKUP(A112,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>633</v>
-      </c>
-      <c r="J112">
-        <f>VLOOKUP(A112,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>6.59375</v>
-      </c>
-      <c r="K112">
-        <f t="shared" si="1"/>
-        <v>2.1565116431187861E-4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113">
-        <v>232</v>
-      </c>
-      <c r="B113" t="s">
-        <v>71</v>
-      </c>
-      <c r="C113">
-        <v>86.747</v>
-      </c>
-      <c r="D113">
-        <v>249</v>
-      </c>
-      <c r="E113" t="s">
-        <v>72</v>
-      </c>
-      <c r="F113" t="s">
-        <v>73</v>
-      </c>
-      <c r="G113">
-        <v>1629870</v>
-      </c>
-      <c r="H113" t="s">
-        <v>32</v>
-      </c>
-      <c r="I113">
-        <f>VLOOKUP(A113,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>190</v>
-      </c>
-      <c r="J113">
-        <f>VLOOKUP(A113,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.9791666666666667</v>
-      </c>
-      <c r="K113">
-        <f t="shared" si="1"/>
-        <v>6.4729417407988839E-5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114">
-        <v>6887</v>
-      </c>
-      <c r="B114" t="s">
-        <v>107</v>
-      </c>
-      <c r="C114">
-        <v>86.4</v>
-      </c>
-      <c r="D114">
-        <v>250</v>
-      </c>
-      <c r="E114" t="s">
-        <v>108</v>
-      </c>
-      <c r="F114" t="s">
-        <v>9</v>
-      </c>
-      <c r="G114">
-        <v>77133</v>
-      </c>
-      <c r="H114" t="s">
-        <v>10</v>
-      </c>
-      <c r="I114">
-        <f>VLOOKUP(A114,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>728</v>
-      </c>
-      <c r="J114">
-        <f>VLOOKUP(A114,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>7.583333333333333</v>
-      </c>
-      <c r="K114">
-        <f t="shared" si="1"/>
-        <v>2.48015873015873E-4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115">
-        <v>6353</v>
-      </c>
-      <c r="B115" t="s">
-        <v>113</v>
-      </c>
-      <c r="C115">
-        <v>83.73</v>
-      </c>
-      <c r="D115">
-        <v>252</v>
-      </c>
-      <c r="E115" t="s">
-        <v>114</v>
-      </c>
-      <c r="F115" t="s">
-        <v>88</v>
-      </c>
-      <c r="G115">
-        <v>198431</v>
-      </c>
-      <c r="H115" t="s">
-        <v>115</v>
-      </c>
-      <c r="I115">
-        <f>VLOOKUP(A115,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>152</v>
-      </c>
-      <c r="J115">
-        <f>VLOOKUP(A115,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="K115">
-        <f t="shared" si="1"/>
-        <v>5.1783533926391064E-5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116">
-        <v>3337</v>
-      </c>
-      <c r="B116" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116">
-        <v>82.4</v>
-      </c>
-      <c r="D116">
-        <v>250</v>
-      </c>
-      <c r="E116" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116">
-        <v>70448</v>
-      </c>
-      <c r="H116" t="s">
-        <v>14</v>
-      </c>
-      <c r="I116">
-        <f>VLOOKUP(A116,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>346</v>
-      </c>
-      <c r="J116">
-        <f>VLOOKUP(A116,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>3.6041666666666665</v>
-      </c>
-      <c r="K116">
-        <f t="shared" si="1"/>
-        <v>1.1787567591139019E-4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117">
-        <v>67</v>
-      </c>
-      <c r="B117" t="s">
-        <v>164</v>
-      </c>
-      <c r="C117">
-        <v>81.89</v>
-      </c>
-      <c r="D117">
-        <v>254</v>
-      </c>
-      <c r="E117" t="s">
-        <v>165</v>
-      </c>
-      <c r="F117" t="s">
-        <v>31</v>
-      </c>
-      <c r="G117">
-        <v>155900</v>
-      </c>
-      <c r="H117" t="s">
-        <v>166</v>
-      </c>
-      <c r="I117">
-        <f>VLOOKUP(A117,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>407</v>
-      </c>
-      <c r="J117">
-        <f>VLOOKUP(A117,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>4.239583333333333</v>
-      </c>
-      <c r="K117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3865722571079712E-4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118">
-        <v>192</v>
-      </c>
-      <c r="B118" t="s">
-        <v>27</v>
-      </c>
-      <c r="C118">
-        <v>80.507999999999996</v>
-      </c>
-      <c r="D118">
-        <v>118</v>
-      </c>
-      <c r="E118" t="s">
-        <v>28</v>
-      </c>
-      <c r="F118" t="s">
-        <v>9</v>
-      </c>
-      <c r="G118">
-        <v>77133</v>
-      </c>
-      <c r="H118" t="s">
-        <v>10</v>
-      </c>
-      <c r="I118">
-        <f>VLOOKUP(A118,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>873</v>
-      </c>
-      <c r="J118">
-        <f>VLOOKUP(A118,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>9.09375</v>
-      </c>
-      <c r="K118">
-        <f t="shared" si="1"/>
-        <v>2.9741463893249607E-4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119">
-        <v>6359</v>
-      </c>
-      <c r="B119" t="s">
-        <v>29</v>
-      </c>
-      <c r="C119">
-        <v>80</v>
-      </c>
-      <c r="D119">
-        <v>250</v>
-      </c>
-      <c r="E119" t="s">
-        <v>30</v>
-      </c>
-      <c r="F119" t="s">
-        <v>31</v>
-      </c>
-      <c r="G119">
-        <v>155900</v>
-      </c>
-      <c r="H119" t="s">
-        <v>32</v>
-      </c>
-      <c r="I119">
-        <f>VLOOKUP(A119,[1]OTUTABLE_original.txt!$A:$B,2,FALSE)</f>
-        <v>176</v>
-      </c>
-      <c r="J119">
-        <f>VLOOKUP(A119,[1]OTUTABLE_original.txt!$A:$C,3,FALSE)</f>
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="K119">
-        <f t="shared" si="1"/>
-        <v>5.9959881388452816E-5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:H152">
-    <sortCondition descending="1" ref="C1:C152"/>
+  <sortState ref="A2:S43">
+    <sortCondition ref="H2:H78"/>
+    <sortCondition ref="C2:C78"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
